--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valev\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,11 +48,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,11 +116,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -157,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,14 +413,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,13 +457,13 @@
         <v>44927</v>
       </c>
       <c r="D2">
-        <v>325.46</v>
+        <v>325.45999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -473,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,13 +508,13 @@
         <v>44930</v>
       </c>
       <c r="D5">
-        <v>38.38</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -507,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -524,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -541,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -558,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -575,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -592,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -609,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -626,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -643,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -660,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -677,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -694,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -711,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -728,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -745,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -762,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -779,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -796,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -813,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -830,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -847,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -864,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -881,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -898,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -915,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -932,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -949,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -966,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -983,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1051,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1068,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1085,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1102,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1119,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1136,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1153,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1204,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1255,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1272,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1306,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1323,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1340,7 +1364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1357,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1385,13 +1409,13 @@
         <v>44983</v>
       </c>
       <c r="D58">
-        <v>325.35</v>
+        <v>325.35000000000002</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1408,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1425,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1459,7 +1483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1476,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1493,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1510,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1527,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1544,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1561,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1578,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1595,7 +1619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1612,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1629,7 +1653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1646,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1657,13 +1681,13 @@
         <v>44999</v>
       </c>
       <c r="D74">
-        <v>259.16</v>
+        <v>259.16000000000003</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1674,13 +1698,13 @@
         <v>45000</v>
       </c>
       <c r="D75">
-        <v>142.7</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1697,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1714,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1731,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1782,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1799,7 +1823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1833,7 +1857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1867,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1884,7 +1908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1901,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1935,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1952,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1969,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1986,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2003,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2020,7 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2071,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2099,13 +2123,13 @@
         <v>45025</v>
       </c>
       <c r="D100">
-        <v>270.65</v>
+        <v>270.64999999999998</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2122,7 +2146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2139,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2156,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2173,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2207,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2218,13 +2242,13 @@
         <v>45032</v>
       </c>
       <c r="D107">
-        <v>128.42</v>
+        <v>128.41999999999999</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2241,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2258,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2275,7 +2299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2309,7 +2333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2343,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2360,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2377,7 +2401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2394,7 +2418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2411,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2428,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2445,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2462,7 +2486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2479,7 +2503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2496,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2513,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2524,13 +2548,13 @@
         <v>45050</v>
       </c>
       <c r="D125">
-        <v>98.26000000000001</v>
+        <v>98.26</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2547,7 +2571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2558,13 +2582,13 @@
         <v>45052</v>
       </c>
       <c r="D127">
-        <v>72.93000000000001</v>
+        <v>72.930000000000007</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2581,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2598,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2615,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2632,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2649,7 +2673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2666,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2683,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2700,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2734,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2751,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2785,7 +2809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2802,7 +2826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2819,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2836,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2853,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2870,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2887,7 +2911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2904,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2915,13 +2939,13 @@
         <v>45073</v>
       </c>
       <c r="D148">
-        <v>280.4</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2938,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2955,7 +2979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>45076</v>
       </c>
       <c r="D151">
-        <v>163.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>

--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valev\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="9">
   <si>
     <t>ID_Pedido</t>
   </si>
@@ -36,23 +31,26 @@
     <t>Estado</t>
   </si>
   <si>
+    <t>ID_Producto</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
     <t>Completado</t>
   </si>
   <si>
     <t>Cancelado</t>
   </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,19 +114,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,10 +192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,23 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,2555 +424,3008 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>44927</v>
       </c>
       <c r="D2">
-        <v>325.45999999999998</v>
+        <v>360.55</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>44928</v>
       </c>
       <c r="D3">
-        <v>330.85</v>
+        <v>413.91</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>44929</v>
       </c>
       <c r="D4">
-        <v>43.97</v>
+        <v>328.78</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>44930</v>
       </c>
       <c r="D5">
-        <v>38.380000000000003</v>
+        <v>330.82</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>44931</v>
       </c>
       <c r="D6">
-        <v>169.86</v>
+        <v>452.07</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>44932</v>
       </c>
       <c r="D7">
-        <v>192.06</v>
+        <v>408.29</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>44933</v>
       </c>
       <c r="D8">
-        <v>325.24</v>
+        <v>205.84</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2">
         <v>44934</v>
       </c>
       <c r="D9">
-        <v>273.58</v>
+        <v>36.86</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2">
         <v>44935</v>
       </c>
       <c r="D10">
-        <v>119.1</v>
+        <v>377.3</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2">
         <v>44936</v>
       </c>
       <c r="D11">
-        <v>142.59</v>
+        <v>292.02</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2">
         <v>44937</v>
       </c>
       <c r="D12">
-        <v>63.75</v>
+        <v>482.15</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>44938</v>
       </c>
       <c r="D13">
-        <v>264.18</v>
+        <v>48.34</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2">
         <v>44939</v>
       </c>
       <c r="D14">
-        <v>373.14</v>
+        <v>449.43</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>44940</v>
       </c>
       <c r="D15">
-        <v>173.92</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>44941</v>
       </c>
       <c r="D16">
-        <v>43.92</v>
+        <v>411.26</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>44942</v>
       </c>
       <c r="D17">
-        <v>406.68</v>
+        <v>89.78</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>44943</v>
       </c>
       <c r="D18">
-        <v>366.69</v>
+        <v>239.83</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>44944</v>
       </c>
       <c r="D19">
-        <v>487.31</v>
+        <v>63.34</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2">
         <v>44945</v>
       </c>
       <c r="D20">
-        <v>335.57</v>
+        <v>21.75</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>44946</v>
       </c>
       <c r="D21">
-        <v>199.69</v>
+        <v>187.58</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>44947</v>
       </c>
       <c r="D22">
-        <v>230.73</v>
+        <v>143.18</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>44948</v>
       </c>
       <c r="D23">
-        <v>198.16</v>
+        <v>454.12</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2">
         <v>44949</v>
       </c>
       <c r="D24">
-        <v>424.85</v>
+        <v>411.09</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2">
         <v>44950</v>
       </c>
       <c r="D25">
-        <v>347.89</v>
+        <v>143.22</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>44951</v>
       </c>
       <c r="D26">
-        <v>31.15</v>
+        <v>113.9</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
         <v>44952</v>
       </c>
       <c r="D27">
-        <v>249.31</v>
+        <v>60.27</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2">
         <v>44953</v>
       </c>
       <c r="D28">
-        <v>347.27</v>
+        <v>93.44</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2">
         <v>44954</v>
       </c>
       <c r="D29">
-        <v>124.4</v>
+        <v>428.22</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
         <v>44955</v>
       </c>
       <c r="D30">
-        <v>389.2</v>
+        <v>56.93</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>44956</v>
       </c>
       <c r="D31">
-        <v>432.45</v>
+        <v>131.61</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2">
         <v>44957</v>
       </c>
       <c r="D32">
-        <v>216.43</v>
+        <v>63.26</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
         <v>44958</v>
       </c>
       <c r="D33">
-        <v>194.01</v>
+        <v>215.91</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
         <v>44959</v>
       </c>
       <c r="D34">
-        <v>243.8</v>
+        <v>263.12</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2">
         <v>44960</v>
       </c>
       <c r="D35">
-        <v>241.13</v>
+        <v>215.86</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2">
         <v>44961</v>
       </c>
       <c r="D36">
-        <v>369.42</v>
+        <v>194.81</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
         <v>44962</v>
       </c>
       <c r="D37">
-        <v>250.77</v>
+        <v>425.67</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2">
         <v>44963</v>
       </c>
       <c r="D38">
-        <v>342.4</v>
+        <v>382.18</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2">
         <v>44964</v>
       </c>
       <c r="D39">
-        <v>457.65</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2">
         <v>44965</v>
       </c>
       <c r="D40">
-        <v>122.84</v>
+        <v>130.51</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2">
         <v>44966</v>
       </c>
       <c r="D41">
-        <v>263.2</v>
+        <v>485.51</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2">
         <v>44967</v>
       </c>
       <c r="D42">
-        <v>372.99</v>
+        <v>154.5</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
         <v>44968</v>
       </c>
       <c r="D43">
-        <v>445.06</v>
+        <v>130.93</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2">
         <v>44969</v>
       </c>
       <c r="D44">
-        <v>85.87</v>
+        <v>189.15</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2">
         <v>44970</v>
       </c>
       <c r="D45">
-        <v>256.94</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2">
         <v>44971</v>
       </c>
       <c r="D46">
-        <v>30.59</v>
+        <v>370.43</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>44972</v>
       </c>
       <c r="D47">
-        <v>471.76</v>
+        <v>265.18</v>
       </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2">
         <v>44973</v>
       </c>
       <c r="D48">
-        <v>368.91</v>
+        <v>213.57</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2">
         <v>44974</v>
       </c>
       <c r="D49">
-        <v>329.57</v>
+        <v>381.21</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C50" s="2">
         <v>44975</v>
       </c>
       <c r="D50">
-        <v>235.09</v>
+        <v>390.22</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2">
         <v>44976</v>
       </c>
       <c r="D51">
-        <v>349.46</v>
+        <v>457.8</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2">
         <v>44977</v>
       </c>
       <c r="D52">
-        <v>117.7</v>
+        <v>271.04</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
         <v>44978</v>
       </c>
       <c r="D53">
-        <v>41.78</v>
+        <v>430.66</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2">
         <v>44979</v>
       </c>
       <c r="D54">
-        <v>226.85</v>
+        <v>258.13</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2">
         <v>44980</v>
       </c>
       <c r="D55">
-        <v>318.75</v>
+        <v>160.15</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2">
         <v>44981</v>
       </c>
       <c r="D56">
-        <v>369.62</v>
+        <v>431.51</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2">
         <v>44982</v>
       </c>
       <c r="D57">
-        <v>457.14</v>
+        <v>182.03</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2">
         <v>44983</v>
       </c>
       <c r="D58">
-        <v>325.35000000000002</v>
+        <v>350.99</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2">
         <v>44984</v>
       </c>
       <c r="D59">
-        <v>438.13</v>
+        <v>117.24</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C60" s="2">
         <v>44985</v>
       </c>
       <c r="D60">
-        <v>420.87</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2">
         <v>44986</v>
       </c>
       <c r="D61">
-        <v>140.25</v>
+        <v>381.84</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2">
         <v>44987</v>
       </c>
       <c r="D62">
-        <v>367.56</v>
+        <v>423.04</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2">
         <v>44988</v>
       </c>
       <c r="D63">
-        <v>116.56</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2">
         <v>44989</v>
       </c>
       <c r="D64">
-        <v>79.02</v>
+        <v>365.58</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C65" s="2">
         <v>44990</v>
       </c>
       <c r="D65">
-        <v>111.1</v>
+        <v>431.59</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2">
         <v>44991</v>
       </c>
       <c r="D66">
-        <v>20.88</v>
+        <v>220.6</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2">
         <v>44992</v>
       </c>
       <c r="D67">
-        <v>144.63</v>
+        <v>231.98</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2">
         <v>44993</v>
       </c>
       <c r="D68">
-        <v>181.8</v>
+        <v>409.79</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2">
         <v>44994</v>
       </c>
       <c r="D69">
-        <v>335.72</v>
+        <v>339.67</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2">
         <v>44995</v>
       </c>
       <c r="D70">
-        <v>235.98</v>
+        <v>322.91</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2">
         <v>44996</v>
       </c>
       <c r="D71">
-        <v>90.22</v>
+        <v>457.03</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
         <v>44997</v>
       </c>
       <c r="D72">
-        <v>210.08</v>
+        <v>147.56</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2">
         <v>44998</v>
       </c>
       <c r="D73">
-        <v>380.15</v>
+        <v>371.71</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2">
         <v>44999</v>
       </c>
       <c r="D74">
-        <v>259.16000000000003</v>
+        <v>138.19</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2">
         <v>45000</v>
       </c>
       <c r="D75">
-        <v>142.69999999999999</v>
+        <v>310.15</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>45001</v>
       </c>
       <c r="D76">
-        <v>343.81</v>
+        <v>278.48</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2">
         <v>45002</v>
       </c>
       <c r="D77">
-        <v>437.48</v>
+        <v>470.28</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2">
         <v>45003</v>
       </c>
       <c r="D78">
-        <v>325.82</v>
+        <v>150.14</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
         <v>45004</v>
       </c>
       <c r="D79">
-        <v>344.14</v>
+        <v>111.72</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2">
         <v>45005</v>
       </c>
       <c r="D80">
-        <v>30.73</v>
+        <v>426.26</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C81" s="2">
         <v>45006</v>
       </c>
       <c r="D81">
-        <v>428.59</v>
+        <v>387.87</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2">
         <v>45007</v>
       </c>
       <c r="D82">
-        <v>458.06</v>
+        <v>478.11</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2">
         <v>45008</v>
       </c>
       <c r="D83">
-        <v>479.59</v>
+        <v>289.27</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2">
         <v>45009</v>
       </c>
       <c r="D84">
-        <v>359.39</v>
+        <v>352.04</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2">
         <v>45010</v>
       </c>
       <c r="D85">
-        <v>337.44</v>
+        <v>370.44</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2">
         <v>45011</v>
       </c>
       <c r="D86">
-        <v>291.62</v>
+        <v>469.18</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2">
         <v>45012</v>
       </c>
       <c r="D87">
-        <v>98.98</v>
+        <v>183.53</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C88" s="2">
         <v>45013</v>
       </c>
       <c r="D88">
-        <v>24.2</v>
+        <v>31.24</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C89" s="2">
         <v>45014</v>
       </c>
       <c r="D89">
-        <v>124.82</v>
+        <v>213.09</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2">
         <v>45015</v>
       </c>
       <c r="D90">
-        <v>467.79</v>
+        <v>433.05</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2">
         <v>45016</v>
       </c>
       <c r="D91">
-        <v>365.8</v>
+        <v>253.81</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C92" s="2">
         <v>45017</v>
       </c>
       <c r="D92">
-        <v>124.12</v>
+        <v>387.57</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2">
         <v>45018</v>
       </c>
       <c r="D93">
-        <v>323.68</v>
+        <v>316.62</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2">
         <v>45019</v>
       </c>
       <c r="D94">
-        <v>416</v>
+        <v>451.59</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2">
         <v>45020</v>
       </c>
       <c r="D95">
-        <v>222.81</v>
+        <v>470.85</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2">
         <v>45021</v>
       </c>
       <c r="D96">
-        <v>405.69</v>
+        <v>76.73</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2">
         <v>45022</v>
       </c>
       <c r="D97">
-        <v>67.55</v>
+        <v>434.76</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2">
         <v>45023</v>
       </c>
       <c r="D98">
-        <v>199.21</v>
+        <v>61.06</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2">
         <v>45024</v>
       </c>
       <c r="D99">
-        <v>368.85</v>
+        <v>479.96</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2">
         <v>45025</v>
       </c>
       <c r="D100">
-        <v>270.64999999999998</v>
+        <v>113.6</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2">
         <v>45026</v>
       </c>
       <c r="D101">
-        <v>402.66</v>
+        <v>349.76</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2">
         <v>45027</v>
       </c>
       <c r="D102">
-        <v>26.06</v>
+        <v>392.01</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C103" s="2">
         <v>45028</v>
       </c>
       <c r="D103">
-        <v>109.49</v>
+        <v>422.72</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2">
         <v>45029</v>
       </c>
       <c r="D104">
-        <v>164.2</v>
+        <v>264.94</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2">
         <v>45030</v>
       </c>
       <c r="D105">
-        <v>25.45</v>
+        <v>387.9</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2">
         <v>45031</v>
       </c>
       <c r="D106">
-        <v>259.8</v>
+        <v>186.47</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C107" s="2">
         <v>45032</v>
       </c>
       <c r="D107">
-        <v>128.41999999999999</v>
+        <v>257.16</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2">
         <v>45033</v>
       </c>
       <c r="D108">
-        <v>459.5</v>
+        <v>80.36</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2">
         <v>45034</v>
       </c>
       <c r="D109">
-        <v>485.95</v>
+        <v>127.9</v>
       </c>
       <c r="E109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C110" s="2">
         <v>45035</v>
       </c>
       <c r="D110">
-        <v>364.97</v>
+        <v>92.27</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2">
         <v>45036</v>
       </c>
       <c r="D111">
-        <v>24.64</v>
+        <v>60.86</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C112" s="2">
         <v>45037</v>
       </c>
       <c r="D112">
-        <v>450.83</v>
+        <v>238.5</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2">
         <v>45038</v>
       </c>
       <c r="D113">
-        <v>432.11</v>
+        <v>263.22</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2">
         <v>45039</v>
       </c>
       <c r="D114">
-        <v>59.68</v>
+        <v>281.98</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C115" s="2">
         <v>45040</v>
       </c>
       <c r="D115">
-        <v>377.46</v>
+        <v>110.33</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2">
         <v>45041</v>
       </c>
       <c r="D116">
-        <v>116.9</v>
+        <v>460.44</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2">
         <v>45042</v>
       </c>
       <c r="D117">
-        <v>59.16</v>
+        <v>464.24</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C118" s="2">
         <v>45043</v>
       </c>
       <c r="D118">
-        <v>371.74</v>
+        <v>424.82</v>
       </c>
       <c r="E118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C119" s="2">
         <v>45044</v>
       </c>
       <c r="D119">
-        <v>339.76</v>
+        <v>482.54</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2">
         <v>45045</v>
       </c>
       <c r="D120">
-        <v>178.16</v>
+        <v>372.52</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C121" s="2">
         <v>45046</v>
       </c>
       <c r="D121">
-        <v>431.41</v>
+        <v>356.76</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2">
         <v>45047</v>
       </c>
       <c r="D122">
-        <v>348.16</v>
+        <v>21.32</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C123" s="2">
         <v>45048</v>
       </c>
       <c r="D123">
-        <v>385.3</v>
+        <v>332.75</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2">
         <v>45049</v>
       </c>
       <c r="D124">
-        <v>217.74</v>
+        <v>194.68</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2">
         <v>45050</v>
       </c>
       <c r="D125">
-        <v>98.26</v>
+        <v>42.16</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2">
         <v>45051</v>
       </c>
       <c r="D126">
-        <v>67.19</v>
+        <v>224.24</v>
       </c>
       <c r="E126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C127" s="2">
         <v>45052</v>
       </c>
       <c r="D127">
-        <v>72.930000000000007</v>
+        <v>424.21</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C128" s="2">
         <v>45053</v>
       </c>
       <c r="D128">
-        <v>284.86</v>
+        <v>173.53</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C129" s="2">
         <v>45054</v>
       </c>
       <c r="D129">
-        <v>193.89</v>
+        <v>214.78</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C130" s="2">
         <v>45055</v>
       </c>
       <c r="D130">
-        <v>482.44</v>
+        <v>91.59</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C131" s="2">
         <v>45056</v>
       </c>
       <c r="D131">
-        <v>205.14</v>
+        <v>146.38</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C132" s="2">
         <v>45057</v>
       </c>
       <c r="D132">
-        <v>304.76</v>
+        <v>397.66</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2">
         <v>45058</v>
       </c>
       <c r="D133">
-        <v>322.76</v>
+        <v>146.18</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C134" s="2">
         <v>45059</v>
       </c>
       <c r="D134">
-        <v>472.29</v>
+        <v>263.97</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2">
         <v>45060</v>
       </c>
       <c r="D135">
-        <v>191.46</v>
+        <v>326.17</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C136" s="2">
         <v>45061</v>
       </c>
       <c r="D136">
-        <v>306.83</v>
+        <v>481.36</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C137" s="2">
         <v>45062</v>
       </c>
       <c r="D137">
-        <v>425.95</v>
+        <v>386.98</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C138" s="2">
         <v>45063</v>
       </c>
       <c r="D138">
-        <v>243.66</v>
+        <v>410.54</v>
       </c>
       <c r="E138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2">
         <v>45064</v>
       </c>
       <c r="D139">
-        <v>498.34</v>
+        <v>284.4</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C140" s="2">
         <v>45065</v>
       </c>
       <c r="D140">
-        <v>342.71</v>
+        <v>196.11</v>
       </c>
       <c r="E140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2">
         <v>45066</v>
       </c>
       <c r="D141">
-        <v>286.45</v>
+        <v>222.62</v>
       </c>
       <c r="E141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2">
         <v>45067</v>
       </c>
       <c r="D142">
-        <v>102.38</v>
+        <v>443.75</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2">
         <v>45068</v>
       </c>
       <c r="D143">
-        <v>373.93</v>
+        <v>407.98</v>
       </c>
       <c r="E143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C144" s="2">
         <v>45069</v>
       </c>
       <c r="D144">
-        <v>120.26</v>
+        <v>452.37</v>
       </c>
       <c r="E144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2">
         <v>45070</v>
       </c>
       <c r="D145">
-        <v>51.7</v>
+        <v>216.04</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C146" s="2">
         <v>45071</v>
       </c>
       <c r="D146">
-        <v>419.61</v>
+        <v>250.91</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C147" s="2">
         <v>45072</v>
       </c>
       <c r="D147">
-        <v>184.54</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2">
         <v>45073</v>
       </c>
       <c r="D148">
-        <v>280.39999999999998</v>
+        <v>108.01</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F148">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C149" s="2">
         <v>45074</v>
       </c>
       <c r="D149">
-        <v>373.32</v>
+        <v>335.11</v>
       </c>
       <c r="E149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C150" s="2">
         <v>45075</v>
       </c>
       <c r="D150">
-        <v>430.32</v>
+        <v>356.07</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F150">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C151" s="2">
         <v>45076</v>
       </c>
       <c r="D151">
-        <v>163.69999999999999</v>
+        <v>400.27</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
